--- a/debug/PUMP_debug.xlsx
+++ b/debug/PUMP_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,20 +568,25 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Stop_Loss</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>cutoff_price</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_price</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>next_buy_trigger_price</t>
         </is>
@@ -671,17 +676,20 @@
         <v>0.0013377</v>
       </c>
       <c r="AA2" t="n">
-        <v/>
-      </c>
-      <c r="AB2" t="inlineStr">
+        <v>0.0012103</v>
+      </c>
+      <c r="AB2" t="n">
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.0013377</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.005778</v>
       </c>
     </row>
@@ -769,17 +777,20 @@
         <v>0.00162183</v>
       </c>
       <c r="AA3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+        <v>0.00146737</v>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.00162183</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.006117</v>
       </c>
     </row>
@@ -867,17 +878,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD4" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.007372</v>
       </c>
     </row>
@@ -965,17 +979,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD5" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.007474</v>
       </c>
     </row>
@@ -1063,17 +1080,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD6" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0.0078</v>
       </c>
     </row>
@@ -1161,17 +1181,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD7" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0.007486</v>
       </c>
     </row>
@@ -1259,17 +1282,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD8" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.007674</v>
       </c>
     </row>
@@ -1357,17 +1383,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD9" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0.006932</v>
       </c>
     </row>
@@ -1455,17 +1484,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD10" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE10" t="n">
         <v>0.006678</v>
       </c>
     </row>
@@ -1553,17 +1585,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD11" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0.006511</v>
       </c>
     </row>
@@ -1651,17 +1686,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA12" t="n">
-        <v/>
-      </c>
-      <c r="AB12" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC12" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD12" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0.005482</v>
       </c>
     </row>
@@ -1749,17 +1787,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC13" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD13" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE13" t="n">
         <v>0.00535</v>
       </c>
     </row>
@@ -1847,17 +1888,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC14" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD14" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0.005449</v>
       </c>
     </row>
@@ -1951,17 +1995,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA15" t="n">
-        <v/>
-      </c>
-      <c r="AB15" t="inlineStr">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD15" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.004951</v>
       </c>
     </row>
@@ -2053,15 +2100,18 @@
         <v>0.0018858</v>
       </c>
       <c r="AA16" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB16" t="n">
         <v>0.005332227</v>
       </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
       <c r="AC16" t="n">
         <v/>
       </c>
       <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
         <v/>
       </c>
     </row>
@@ -2149,17 +2199,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA17" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.005332227</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC17" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD17" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE17" t="n">
         <v>0.004951</v>
       </c>
     </row>
@@ -2253,17 +2306,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA18" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB18" t="n">
         <v>0.005332227</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC18" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD18" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0.004841</v>
       </c>
     </row>
@@ -2355,15 +2411,18 @@
         <v>0.0018858</v>
       </c>
       <c r="AA19" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB19" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB19" t="n">
-        <v/>
-      </c>
       <c r="AC19" t="n">
         <v/>
       </c>
       <c r="AD19" t="n">
+        <v/>
+      </c>
+      <c r="AE19" t="n">
         <v/>
       </c>
     </row>
@@ -2451,17 +2510,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA20" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB20" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC20" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD20" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE20" t="n">
         <v>0.004841</v>
       </c>
     </row>
@@ -2555,17 +2617,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA21" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB21" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD21" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE21" t="n">
         <v>0.004917</v>
       </c>
     </row>
@@ -2657,15 +2722,18 @@
         <v>0.0018858</v>
       </c>
       <c r="AA22" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB22" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB22" t="n">
-        <v/>
-      </c>
       <c r="AC22" t="n">
         <v/>
       </c>
       <c r="AD22" t="n">
+        <v/>
+      </c>
+      <c r="AE22" t="n">
         <v/>
       </c>
     </row>
@@ -2753,17 +2821,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA23" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB23" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC23" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD23" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE23" t="n">
         <v>0.004917</v>
       </c>
     </row>
@@ -2857,17 +2928,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA24" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB24" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC24" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD24" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0.004959</v>
       </c>
     </row>
@@ -2959,15 +3033,18 @@
         <v>0.0018858</v>
       </c>
       <c r="AA25" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB25" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB25" t="n">
-        <v/>
-      </c>
       <c r="AC25" t="n">
         <v/>
       </c>
       <c r="AD25" t="n">
+        <v/>
+      </c>
+      <c r="AE25" t="n">
         <v/>
       </c>
     </row>
@@ -3055,17 +3132,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA26" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB26" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC26" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD26" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE26" t="n">
         <v>0.004959</v>
       </c>
     </row>
@@ -3153,17 +3233,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA27" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB27" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC27" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD27" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE27" t="n">
         <v>0.0054</v>
       </c>
     </row>
@@ -3251,17 +3334,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA28" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB28" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC28" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD28" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE28" t="n">
         <v>0.005218</v>
       </c>
     </row>
@@ -3349,17 +3435,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA29" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB29" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC29" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD29" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE29" t="n">
         <v>0.005854</v>
       </c>
     </row>
@@ -3447,17 +3536,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA30" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB30" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC30" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD30" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE30" t="n">
         <v>0.006668</v>
       </c>
     </row>
@@ -3545,17 +3637,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA31" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB31" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD31" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE31" t="n">
         <v>0.006751</v>
       </c>
     </row>
@@ -3643,17 +3738,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA32" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB32" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC32" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD32" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE32" t="n">
         <v>0.006334</v>
       </c>
     </row>
@@ -3741,17 +3839,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA33" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB33" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC33" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD33" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE33" t="n">
         <v>0.00634</v>
       </c>
     </row>
@@ -3839,17 +3940,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA34" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB34" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC34" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD34" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE34" t="n">
         <v>0.00615</v>
       </c>
     </row>
@@ -3937,17 +4041,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA35" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB35" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC35" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD35" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE35" t="n">
         <v>0.006049</v>
       </c>
     </row>
@@ -4035,17 +4142,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA36" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB36" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC36" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD36" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE36" t="n">
         <v>0.005809</v>
       </c>
     </row>
@@ -4133,17 +4243,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA37" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB37" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC37" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD37" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE37" t="n">
         <v>0.00553</v>
       </c>
     </row>
@@ -4237,17 +4350,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA38" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB38" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC38" t="n">
-        <v>0.0050288</v>
-      </c>
       <c r="AD38" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="AE38" t="n">
         <v>0.00402</v>
       </c>
     </row>
@@ -4341,17 +4457,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA39" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB39" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>0.0046696</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="n">
         <v>0.00402</v>
       </c>
     </row>
@@ -4445,17 +4564,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA40" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB40" t="n">
         <v>0.005213757</v>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC40" t="n">
-        <v>0.0041308</v>
-      </c>
       <c r="AD40" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE40" t="n">
         <v>0.00402</v>
       </c>
     </row>
@@ -4547,15 +4669,18 @@
         <v>0.0018858</v>
       </c>
       <c r="AA41" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB41" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB41" t="n">
-        <v/>
-      </c>
       <c r="AC41" t="n">
         <v/>
       </c>
       <c r="AD41" t="n">
+        <v/>
+      </c>
+      <c r="AE41" t="n">
         <v/>
       </c>
     </row>
@@ -4643,17 +4768,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA42" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB42" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC42" t="n">
+      <c r="AD42" t="n">
         <v>0.0046696</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AE42" t="n">
         <v>0.00402</v>
       </c>
     </row>
@@ -4747,17 +4875,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA43" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB43" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC43" t="n">
-        <v>0.0041308</v>
-      </c>
       <c r="AD43" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE43" t="n">
         <v>0.003601</v>
       </c>
     </row>
@@ -4851,17 +4982,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA44" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB44" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC44" t="n">
+      <c r="AD44" t="n">
         <v>0.0036818</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AE44" t="n">
         <v>0.003601</v>
       </c>
     </row>
@@ -4949,17 +5083,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA45" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB45" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC45" t="n">
-        <v>0.0041308</v>
-      </c>
       <c r="AD45" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE45" t="n">
         <v>0.003601</v>
       </c>
     </row>
@@ -5047,17 +5184,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA46" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB46" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC46" t="n">
-        <v>0.0041308</v>
-      </c>
       <c r="AD46" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE46" t="n">
         <v>0.003625</v>
       </c>
     </row>
@@ -5145,17 +5285,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA47" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB47" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC47" t="n">
-        <v>0.0041308</v>
-      </c>
       <c r="AD47" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE47" t="n">
         <v>0.003958</v>
       </c>
     </row>
@@ -5243,17 +5386,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA48" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB48" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC48" t="n">
-        <v>0.0041308</v>
-      </c>
       <c r="AD48" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE48" t="n">
         <v>0.003666</v>
       </c>
     </row>
@@ -5341,17 +5487,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA49" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB49" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC49" t="n">
-        <v>0.0041308</v>
-      </c>
       <c r="AD49" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE49" t="n">
         <v>0.003755</v>
       </c>
     </row>
@@ -5439,17 +5588,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA50" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB50" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC50" t="n">
+      <c r="AD50" t="n">
         <v>0.0036818</v>
       </c>
-      <c r="AD50" t="n">
+      <c r="AE50" t="n">
         <v>0.003389</v>
       </c>
     </row>
@@ -5537,17 +5689,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA51" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB51" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC51" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD51" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE51" t="n">
         <v>0.00321</v>
       </c>
     </row>
@@ -5635,17 +5790,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA52" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB52" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC52" t="n">
+      <c r="AD52" t="n">
         <v>0.0036818</v>
       </c>
-      <c r="AD52" t="n">
+      <c r="AE52" t="n">
         <v>0.003491</v>
       </c>
     </row>
@@ -5665,7 +5823,7 @@
         <v>0.003792</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0039</v>
+        <v>0.003823</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5733,17 +5891,20 @@
         <v>0.0018858</v>
       </c>
       <c r="AA53" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB53" t="n">
         <v>0.00500088</v>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC53" t="n">
-        <v>0.0018858</v>
-      </c>
       <c r="AD53" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AE53" t="n">
         <v>0.003792</v>
       </c>
     </row>

--- a/debug/PUMP_debug.xlsx
+++ b/debug/PUMP_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5823,7 +5823,7 @@
         <v>0.003792</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003823</v>
+        <v>0.003921</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5906,6 +5906,816 @@
       </c>
       <c r="AE53" t="n">
         <v>0.003792</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.00392</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.004207</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.003763</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.003876</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="n">
+        <v/>
+      </c>
+      <c r="J54" t="n">
+        <v/>
+      </c>
+      <c r="K54" t="n">
+        <v/>
+      </c>
+      <c r="L54" t="n">
+        <v/>
+      </c>
+      <c r="M54" t="n">
+        <v/>
+      </c>
+      <c r="N54" t="n">
+        <v/>
+      </c>
+      <c r="O54" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>31.05919</v>
+      </c>
+      <c r="R54" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>6</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.00500088</v>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.003763</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.003875</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.00416</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.003593</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.003697</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="n">
+        <v/>
+      </c>
+      <c r="J55" t="n">
+        <v/>
+      </c>
+      <c r="K55" t="n">
+        <v/>
+      </c>
+      <c r="L55" t="n">
+        <v/>
+      </c>
+      <c r="M55" t="n">
+        <v/>
+      </c>
+      <c r="N55" t="n">
+        <v/>
+      </c>
+      <c r="O55" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>29.595016</v>
+      </c>
+      <c r="R55" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.00500088</v>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.003593</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.003698</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.003828</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.003413</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.003462</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" t="n">
+        <v/>
+      </c>
+      <c r="J56" t="n">
+        <v/>
+      </c>
+      <c r="K56" t="n">
+        <v/>
+      </c>
+      <c r="L56" t="n">
+        <v/>
+      </c>
+      <c r="M56" t="n">
+        <v/>
+      </c>
+      <c r="N56" t="n">
+        <v/>
+      </c>
+      <c r="O56" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>19.252336</v>
+      </c>
+      <c r="R56" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>6</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.00500088</v>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.003413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.003462</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.003937</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.003447</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.003809</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v/>
+      </c>
+      <c r="J57" t="n">
+        <v/>
+      </c>
+      <c r="K57" t="n">
+        <v/>
+      </c>
+      <c r="L57" t="n">
+        <v/>
+      </c>
+      <c r="M57" t="n">
+        <v/>
+      </c>
+      <c r="N57" t="n">
+        <v/>
+      </c>
+      <c r="O57" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>22.647975</v>
+      </c>
+      <c r="R57" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.00500088</v>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.003447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.003809</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.004302</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.003751</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.004162</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" t="n">
+        <v/>
+      </c>
+      <c r="J58" t="n">
+        <v/>
+      </c>
+      <c r="K58" t="n">
+        <v/>
+      </c>
+      <c r="L58" t="n">
+        <v/>
+      </c>
+      <c r="M58" t="n">
+        <v/>
+      </c>
+      <c r="N58" t="n">
+        <v/>
+      </c>
+      <c r="O58" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>34.018692</v>
+      </c>
+      <c r="R58" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>6</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.00500088</v>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.003751</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.004161</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.004252</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.004005</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.004142</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="n">
+        <v/>
+      </c>
+      <c r="J59" t="n">
+        <v/>
+      </c>
+      <c r="K59" t="n">
+        <v/>
+      </c>
+      <c r="L59" t="n">
+        <v/>
+      </c>
+      <c r="M59" t="n">
+        <v/>
+      </c>
+      <c r="N59" t="n">
+        <v/>
+      </c>
+      <c r="O59" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>32.461059</v>
+      </c>
+      <c r="R59" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.00500088</v>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.004005</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.004141</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.004808</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.004079</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.004688</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v/>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v/>
+      </c>
+      <c r="L60" t="n">
+        <v/>
+      </c>
+      <c r="M60" t="n">
+        <v>0.00441054</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.00441054</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q60" t="n">
+        <v/>
+      </c>
+      <c r="R60" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.00441054</v>
+      </c>
+      <c r="AC60" t="n">
+        <v/>
+      </c>
+      <c r="AD60" t="n">
+        <v/>
+      </c>
+      <c r="AE60" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.004141</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.004808</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.004079</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.004688</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v/>
+      </c>
+      <c r="I61" t="n">
+        <v/>
+      </c>
+      <c r="J61" t="n">
+        <v/>
+      </c>
+      <c r="K61" t="n">
+        <v/>
+      </c>
+      <c r="L61" t="n">
+        <v/>
+      </c>
+      <c r="M61" t="n">
+        <v/>
+      </c>
+      <c r="N61" t="n">
+        <v/>
+      </c>
+      <c r="O61" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>49.781931</v>
+      </c>
+      <c r="R61" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0050288</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.0046696</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0036818</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.003143</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.0025144</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.0018858</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.0017062</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.00441054</v>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.0041308</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.004079</v>
       </c>
     </row>
   </sheetData>
